--- a/download/公制圆板牙.xlsx
+++ b/download/公制圆板牙.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">3_102</t>
   </si>
   <si>
-    <t xml:space="preserve">btw45</t>
+    <t xml:space="preserve">wer123-tw</t>
   </si>
   <si>
     <t xml:space="preserve">支</t>
@@ -93,10 +93,46 @@
     <t xml:space="preserve">成都测量量具公司</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">否</t>
   </si>
   <si>
-    <t xml:space="preserve">wer123</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">导入测试 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTW-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合金钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海天工测量工具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
@@ -234,7 +270,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,7 +322,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -307,47 +343,57 @@
         <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/download/公制圆板牙.xlsx
+++ b/download/公制圆板牙.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
@@ -43,6 +43,9 @@
     <t>库存下限</t>
   </si>
   <si>
+    <t>库位</t>
+  </si>
+  <si>
     <t>停用</t>
   </si>
   <si>
@@ -67,19 +70,19 @@
     <t>成都测量有限公司</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>第一条记录测试</t>
+  </si>
+  <si>
     <t>95</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>第一条记录测试</t>
-  </si>
-  <si>
-    <t>96</t>
   </si>
   <si>
     <t>23UN3232</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,18 +547,19 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,735 +593,738 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
         <v>106</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>112</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>159</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+      <c r="K15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
         <v>110</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F18" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
         <v>162</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
-        <v>164</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
-        <v>103</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
+        <v>161</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
         <v>163</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
-        <v>161</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
-        <v>165</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" t="s">
-        <v>57</v>
-      </c>
       <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
         <v>53</v>
       </c>
     </row>

--- a/download/公制圆板牙.xlsx
+++ b/download/公制圆板牙.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
   <si>
     <t>编号</t>
   </si>
@@ -70,19 +70,25 @@
     <t>成都测量有限公司</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>上-02</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>第一条记录测试</t>
+  </si>
+  <si>
     <t>96</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>第一条记录测试</t>
-  </si>
-  <si>
-    <t>95</t>
+    <t>上-01</t>
   </si>
   <si>
     <t>23UN3232</t>
@@ -100,6 +106,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>上-03</t>
+  </si>
+  <si>
     <t>第一次添加测试</t>
   </si>
   <si>
@@ -118,6 +127,15 @@
     <t>120</t>
   </si>
   <si>
+    <t>上-06</t>
+  </si>
+  <si>
+    <t>上-04</t>
+  </si>
+  <si>
+    <t>上-05</t>
+  </si>
+  <si>
     <t>dfasas</t>
   </si>
   <si>
@@ -130,6 +148,9 @@
     <t>102</t>
   </si>
   <si>
+    <t>上-07</t>
+  </si>
+  <si>
     <t>test-989</t>
   </si>
   <si>
@@ -142,6 +163,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>上-08</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -160,24 +184,57 @@
     <t>6</t>
   </si>
   <si>
+    <t>中-01</t>
+  </si>
+  <si>
+    <t>中-02</t>
+  </si>
+  <si>
     <t>wer123</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
+    <t>中-04</t>
+  </si>
+  <si>
+    <t>中-03</t>
+  </si>
+  <si>
+    <t>中-05</t>
+  </si>
+  <si>
     <t>wer123-tr</t>
   </si>
   <si>
+    <t>中-06</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
+    <t>中-07</t>
+  </si>
+  <si>
     <t>wer123-tw</t>
   </si>
   <si>
+    <t>中-08</t>
+  </si>
+  <si>
+    <t>下-01</t>
+  </si>
+  <si>
+    <t>下-02</t>
+  </si>
+  <si>
     <t>导入测试</t>
   </si>
   <si>
+    <t>下-03</t>
+  </si>
+  <si>
     <t>导入测试 2</t>
   </si>
   <si>
@@ -193,7 +250,16 @@
     <t>104</t>
   </si>
   <si>
+    <t>下-04</t>
+  </si>
+  <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>下-05</t>
+  </si>
+  <si>
+    <t>下-06</t>
   </si>
 </sst>
 </file>
@@ -599,7 +665,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -625,16 +691,19 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -655,16 +724,19 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -675,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -687,115 +759,127 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+      <c r="J5" t="s">
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -806,28 +890,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -838,31 +925,34 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -873,28 +963,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -905,92 +998,101 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1001,28 +1103,31 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1033,28 +1138,31 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1065,28 +1173,31 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1097,28 +1208,31 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1129,28 +1243,31 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1161,31 +1278,34 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
+      <c r="J19" t="s">
+        <v>70</v>
+      </c>
       <c r="K19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1196,31 +1316,34 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1231,31 +1354,34 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1266,31 +1392,34 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1301,31 +1430,34 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
